--- a/samples/meta/opex_manifest_generator_AutoClass.xlsx
+++ b/samples/meta/opex_manifest_generator_AutoClass.xlsx
@@ -873,8 +873,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003CF82376C331B141AAAA243AEF972673" ma:contentTypeVersion="59" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6e11662c5b9643fa164ee630c50786e2">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="823e09ae-6c6c-40a2-8039-1299805fd3f9" xmlns:ns3="8ac49b6d-76ee-4a2c-adf2-4d98aa8a6b1e" xmlns:ns4="292d0dc2-e599-4ea9-b5ef-33bfd71295c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="43cc9ebd5dd73ebe31e8e3043ffd1ab3" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003CF82376C331B141AAAA243AEF972673" ma:contentTypeVersion="60" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd72cd285c77074ee963c6f252c990fe">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="823e09ae-6c6c-40a2-8039-1299805fd3f9" xmlns:ns3="8ac49b6d-76ee-4a2c-adf2-4d98aa8a6b1e" xmlns:ns4="292d0dc2-e599-4ea9-b5ef-33bfd71295c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cf132f1a7bed06b11cf6c88c739285a7" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="823e09ae-6c6c-40a2-8039-1299805fd3f9"/>
     <xsd:import namespace="8ac49b6d-76ee-4a2c-adf2-4d98aa8a6b1e"/>
     <xsd:import namespace="292d0dc2-e599-4ea9-b5ef-33bfd71295c7"/>
@@ -907,6 +907,7 @@
                 <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1110,6 +1111,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="32" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="292d0dc2-e599-4ea9-b5ef-33bfd71295c7" elementFormDefault="qualified">
@@ -1285,8 +1291,31 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="823e09ae-6c6c-40a2-8039-1299805fd3f9">UA6QMR4SPVAX-848254796-96599</_dlc_DocId>
+    <Document_x0020_Type0 xmlns="8ac49b6d-76ee-4a2c-adf2-4d98aa8a6b1e">
+      <Value>Administration</Value>
+    </Document_x0020_Type0>
+    <Active xmlns="8ac49b6d-76ee-4a2c-adf2-4d98aa8a6b1e">true</Active>
+    <Document_x0020_Type xmlns="8ac49b6d-76ee-4a2c-adf2-4d98aa8a6b1e">
+      <Value>Archive Administration</Value>
+    </Document_x0020_Type>
+    <_dlc_DocIdUrl xmlns="823e09ae-6c6c-40a2-8039-1299805fd3f9">
+      <Url>https://unilever.sharepoint.com/teams/UARMTeamsite/_layouts/15/DocIdRedir.aspx?ID=UA6QMR4SPVAX-848254796-96599</Url>
+      <Description>UA6QMR4SPVAX-848254796-96599</Description>
+    </_dlc_DocIdUrl>
+    <TaxCatchAll xmlns="292d0dc2-e599-4ea9-b5ef-33bfd71295c7" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8ac49b6d-76ee-4a2c-adf2-4d98aa8a6b1e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C3C8C71-E1CC-4493-A25F-545F9B35F01E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12B11FCB-942C-46BC-B445-429FF2DED323}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1295,4 +1324,8 @@
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ECCFBFC-B5BE-435E-BDF1-534BF84E3937}"/>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8354AFB9-F9D5-4081-853C-B164C92D45AD}"/>
 </file>